--- a/통계이론 및 실습/실습데이터2/포아송분포.xlsx
+++ b/통계이론 및 실습/실습데이터2/포아송분포.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\KISTI\엑셀데이터분석\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\kis\통계이론 및 실습\실습데이터2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>단위시간당 평균 발생 횟수가 5회인 사건의 포아송분포</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>P(X=x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,6 +112,886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6.737946999085467E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.368973499542733E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4224337488568335E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14037389581428059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17546736976785074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17546736976785071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14622280813987559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.104444862957054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5278039348158706E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6265577415643749E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8132788707821874E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2421766853735742E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4342402855723282E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3208616482970471E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7173630296323246E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5724543432107704E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9139198225336609E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4452705360393124E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0146403778869831E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0564843099702586E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6412107749256427E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="395263864"/>
+        <c:axId val="395262688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="395263864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395262688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395262688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395263864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,24 +1257,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -394,16 +1288,391 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>POISSON(B7,$C$4,0)</f>
+        <v>6.737946999085467E-3</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>B7*B7+C7</f>
+        <v>6.737946999085467E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C27" si="0">POISSON(B8,$C$4,0)</f>
+        <v>3.368973499542733E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D27" si="1">B8*C8</f>
+        <v>3.368973499542733E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E27" si="2">B8*B8+C8</f>
+        <v>1.0336897349954273</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8.4224337488568335E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.16844867497713667</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>4.0842243374885685</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.14037389581428059</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.42112168744284173</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>9.1403738958142799</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.17546736976785074</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.70186947907140296</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>16.175467369767851</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.17546736976785071</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.87733684883925356</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>25.175467369767851</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.14622280813987559</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.87733684883925356</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>36.146222808139875</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.104444862957054</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.73111404069937802</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>49.104444862957052</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6.5278039348158706E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.52222431478526965</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>64.065278039348158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.6265577415643749E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.32639019674079373</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>81.036265577415648</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.8132788707821874E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.18132788707821873</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>100.01813278870782</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>8.2421766853735742E-3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>9.066394353910931E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>121.00824217668537</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3.4342402855723282E-3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4.1210883426867941E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>144.00343424028557</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.3208616482970471E-3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.7171201427861611E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>169.00132086164831</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4.7173630296323246E-4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>6.6043082414852542E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>196.00047173630296</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.5724543432107704E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2.3586815148161555E-3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>225.00015724543431</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4.9139198225336609E-5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>7.8622717160538574E-4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>256.00004913919821</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.4452705360393124E-5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2.456959911266831E-4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>289.00001445270539</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4.0146403778869831E-6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>7.2263526801965693E-5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>324.00000401464035</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.0564843099702586E-6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2.0073201889434914E-5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>361.00000105648434</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2.6412107749256427E-7</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>5.2824215498512856E-6</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>400.00000026412107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <f>SUM(C7:C27)</f>
+        <v>0.99999991890749529</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D7:D27)</f>
+        <v>4.9999982739320883</v>
+      </c>
+      <c r="E28">
+        <f>SUM(E7:E27)</f>
+        <v>2870.9999999189076</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>